--- a/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200217.xlsx
@@ -10764,8 +10764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11396,7 +11396,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -11587,7 +11587,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
